--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85858.77176738078</v>
+        <v>15832537.24451991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85858.77176738078</v>
+        <v>15832537.24451991</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4417.557966140743</v>
+        <v>435368.5421785995</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4417.557966140743</v>
+        <v>435368.5421785995</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112702993.223719</v>
+        <v>45793247.59974317</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9624.153776645209</v>
+        <v>1097341.586321819</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18028.38550453657</v>
+        <v>2007965.811260688</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26432.6172324268</v>
+        <v>2918590.036199781</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34983.33357879981</v>
+        <v>3838942.317685647</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43489.62325850286</v>
+        <v>4750453.692505309</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51520.67590915717</v>
+        <v>5640234.621211728</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59756.7327684223</v>
+        <v>6551745.996030882</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67992.78962768729</v>
+        <v>7463257.370850063</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>75938.98396007545</v>
+        <v>8351440.363130995</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83961.00798525455</v>
+        <v>9260771.607645456</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91450.72646298753</v>
+        <v>10084139.91153905</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99359.10869649734</v>
+        <v>10992945.65925239</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>107325.989517835</v>
+        <v>11901828.39529365</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115530.6722093048</v>
+        <v>12769015.4771248</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>123792.9903119911</v>
+        <v>13635311.70286161</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>32.00000000002666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>31.99999999928667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>412.0000000010198</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>51</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
